--- a/sampleData/codeFlight.xlsx
+++ b/sampleData/codeFlight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_27_8\project_capsure\n.05-docker-mongo\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F65D57-D383-4B42-BA77-238B1C337F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF187CC4-3774-4B29-86F0-63E67C7AEE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Sân bay quốc tế Đà Nẵng</t>
   </si>
   <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
     <t>3.500 m/3.048 m</t>
   </si>
   <si>
@@ -138,18 +135,12 @@
     <t>Sân bay quốc tế Cam Ranh</t>
   </si>
   <si>
-    <t>Khánh Hòa</t>
-  </si>
-  <si>
     <t>3.048 m</t>
   </si>
   <si>
     <t>Sân bay Rạch Giá</t>
   </si>
   <si>
-    <t>Kiên Giang</t>
-  </si>
-  <si>
     <t>Sân bay quốc tế Phú Quốc</t>
   </si>
   <si>
@@ -159,45 +150,27 @@
     <t>Sân bay Liên Khương</t>
   </si>
   <si>
-    <t>Lâm Đồng</t>
-  </si>
-  <si>
     <t>3.250 m</t>
   </si>
   <si>
     <t>Sân bay quốc tế Vinh</t>
   </si>
   <si>
-    <t>Nghệ An</t>
-  </si>
-  <si>
     <t>Sân bay Tuy Hòa</t>
   </si>
   <si>
-    <t>Phú Yên</t>
-  </si>
-  <si>
     <t>2.902 m</t>
   </si>
   <si>
     <t>Sân bay Đồng Hới</t>
   </si>
   <si>
-    <t>Quảng Bình</t>
-  </si>
-  <si>
     <t>Sân bay Chu Lai</t>
   </si>
   <si>
-    <t>Quảng Nam</t>
-  </si>
-  <si>
     <t>Sân bay Thọ Xuân</t>
   </si>
   <si>
-    <t>Thanh Hóa</t>
-  </si>
-  <si>
     <t>3.200 m</t>
   </si>
   <si>
@@ -274,6 +247,33 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>Thanh Hoa</t>
+  </si>
+  <si>
+    <t>Quang Nam</t>
+  </si>
+  <si>
+    <t>Quang Binh</t>
+  </si>
+  <si>
+    <t>Phu Yen</t>
+  </si>
+  <si>
+    <t>Nghe An</t>
+  </si>
+  <si>
+    <t>Lam Đồng</t>
+  </si>
+  <si>
+    <t>Kien Giang</t>
+  </si>
+  <si>
+    <t>Khanh Hoa</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,19 +658,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3">
         <v>1945</v>
@@ -713,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -745,7 +745,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -809,7 +809,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -841,10 +841,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3">
         <v>1940</v>
@@ -870,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
@@ -900,13 +900,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
@@ -930,22 +930,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H10" s="3">
         <v>1985</v>
@@ -962,13 +962,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3">
         <v>1977</v>
@@ -994,13 +994,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="3">
         <v>1930</v>
@@ -1026,13 +1026,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H13" s="3">
         <v>1965</v>
@@ -1058,13 +1058,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1083,24 +1083,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>14</v>
@@ -1118,13 +1118,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H16" s="3">
         <v>1961</v>
@@ -1150,13 +1150,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
@@ -1180,13 +1180,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
@@ -1210,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -1225,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="3">
         <v>1930</v>
@@ -1242,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3">
         <v>2004</v>
@@ -1274,20 +1274,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
